--- a/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Well, thank you, Mr. Chairman.    And I want to thank our witnesses for being here today, and I look forward to hearing your testimony, and, as always, I thank you for the work you are doing on behalf of our country. Thank you all for your service.    The 2014 Quadrennial Defense Review stated that, and I quote, ``The importance of cyberspace to the American way of life and to the Nation's security makes cyberspace an attractive target for those seeking to challenge our security and economic order,'' end quote. I could not agree more. Last year the Director of National Intelligence placed cyber threats number one on the list of strategic threats to the United States.    Most recently, the National Security Strategy cites the danger of destruction and even destructive cyber attack is growing. The cyber domain is complex. We all understand that. Threats in this space continuously evolve based on emerging technologies and techniques to counter our efforts. Threats are carried out by a diverse set of actors. Securing, defending, and operating freely in this space presents a nontraditional challenge requiring an immediate but thoughtful response.    Since the creation of U.S. Cyber Command, the Department has made substantial strides in understanding and enabling freedom of action in the cyber domain, as well as understanding and protecting Department of Defense networks. Significant investments have been made. In fact, cyberspace is the only area of growth in the Department of Defense's budget in the last few years. I commend the Department's efforts, and I am proud of what has been achieved so far, yet there is still much to be done. Confronting this challenge will continue to require dialogue between the Department and Congress on the policies, capabilities, and other resources needed to appropriately and successfully operate in the cyber domain. That is why this hearing is so important.    Together we can build and maintain a ready cyber force for the Nation. I look forward to receiving an update from the witnesses on the buildout of our cyber capacity and the fiscal year 2016 budget request. I hope the services will provide us an understanding of total force requirements for cyber operations, both service-specific and for the U.S. Cyber Command to enable the subcommittee to better understand all resources needed and provide for a ready force.    Specifically, I am eager to hear about how the services are recruiting and retaining qualified military and civilian personnel, managing cyber as a career field, and any challenges associated with those fields. I look forward to hearing how the services are incorporating the Reserve Components into the cyber mission forces. Additionally, I would like to understand how science and technology investments are being leveraged now and in the future to deliver the latest and best capabilities.    I would also like the witnesses' perspective on whether the current acquisition process delivers tools in time to meet and stay ahead of the threat, which as we know as technology changes so quickly, that is a significant challenge on our hands. So there is much to discuss on this issue, and in order to allow for dialogue, I am going to end my remarks here.    And again I want to thank our witnesses for appearing before the subcommittee and to you, Mr. Chairman, for holding this hearing, and I yield back.    Mr. Wilson of South Carolina. Thank you, Mr. Langevin.    Before we begin, I would like to remind our witnesses that your written statements will be submitted for the record, so we ask that you summarize your comments to 5 minutes or less.    Admiral Rogers, we begin with you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Rogers. Thank you, sir.    Chairman Wilson, Ranking Member Langevin, and distinguished members of the committee, I am honored to appear before you today to discuss our military cybersecurity posture, and I would like to thank you for convening this forum.    I am equally pleased to be sitting alongside my colleagues from each of the four service components of the United States Cyber Command. It gives me great pride to appear before you today to highlight and commend the accomplishments of the uniformed and civilian personnel of U.S. Cyber Command and its components, and I am both grateful for and humbled by the opportunity that I have been given to lead this cyber team.    The current threat environment is, as you have just described in your opening remarks, uncertain. That said, we are certain of one particular thing, and that is the pervasive nature of these cyber threats and the sophistication of the adversaries we face. Our military networks are probed for vulnerabilities literally thousands of times a day. The very assets within our military that provide us formidable advantages over adversaries are precisely the reason that our enemies seek to map, understand, exploit, and disrupt our global network architecture.    The cyber intruders of today not only want to disrupt our actions, but they seek to establish a permanent presence on our networks. Quite simply, threats and vulnerabilities are changing and expanding at an accelerating and significant pace. Compounding this threat is the fact that we are dependent on cyberspace. Operating freely and securely in cyberspace is critical to not only our military and our government, but also to the private sector, which is responsible for maintaining much of our Nation's critical infrastructure to including that of key parts of the Department of Defense.    The bottom line is weakness in cyberspace has the potential to hold back our success in every field where our [Nation] is engaged. And I would like to focus in our comments today on the progress we have made so far, the achievements that we are doing in the operational arena, and what I think is the way ahead, and I look forward to that discussion.    With that, I will conclude my opening remarks.    [The prepared statement of Admiral Rogers can be found in the Appendix on page 35.]    Mr. Wilson of South Carolina. Thank you very much.    And General Cardon.    General Cardon. Chairman Wilson, Ranking Member Langevin, members of the committee, it is an honor to be here on behalf of the U.S. Army Cyber Command and Second Army alongside Admiral Rogers and my fellow commanders.    We appreciate the work of this committee to protect the American people from emerging threats and ensure our military has the capabilities we need to defend the Nation. Over the last few years we have had tremendous momentum, both within the institution and operationalizing cyberspace, but a lot of work remains. For the institution, we have consolidated cyberspace under one commander. We have created the Cyber Center of Excellence in Fort Gordon, Georgia, and the Army Cyber Institute at the United States Military Academy.    The Army is currently establishing the necessary frameworks to build capabilities for the Army, and by extension, the Joint Force. Operationally, we are making progress with mission-focused approaches supporting Army and combatant commanders. We made progress this year developing the Army's portion of the Cyber Mission Force with 25 of 41 teams on mission now, and we expect to have all 41 on mission by the end of fiscal year 2016 as planned.    In the face of determined adversaries, though, we are employing these teams as they reach initial operating capability and will continue to bring forces and capabilities online through 2017. The threat, vulnerabilities, and missions set, demand this sense of urgency. This also includes bringing online 21 U.S. Army Reserve and Army National Guard Protection Teams that will be trained at the same standards as the Active Component cyber force.    We are going to need more personnel beyond the Cyber Mission Force to build out the support required to fully employ the Cyber Mission Force and to build capabilities for Army formations. To better manage our people, the Army created a cyber branch, and we are exploring the creation of a cyber career field for civilian personnel.    For training, we have a centrally funded joint model for individually training, but we are working to also build collective training capabilities and their associated facilities within a joint construct. For equipping the forces, we are developing and refining the necessary framework to give us the agility that we will need in programming, resourcing, and acquisition for infrastructure platforms and tools. And for a more defensible architecture and network, we are partnered with the Army's Chief Information Officer and Defense Information Systems Agency [DISA] in the Air Force for an extensive network modernization efforts.    These are essential for the security, operation, and defense of our Department of Defense networks. We have made tremendous progress, and with your support we have the necessary program resources to continue our momentum, but we cannot delay for the struggle is on us now.    Thank you, and I will be happy to answer your questions.    [The prepared statement of General Cardon can be found in the Appendix on page 53.]    Mr. Wilson of South Carolina. Thank you very much, General.    Admiral Tighe.</t>
   </si>
   <si>
-    <t>Tighe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Tighe. Chairman Wilson, Ranking Member Langevin, and distinguished members of the subcommittee, thank you for your support to our military and the opportunity to appear before you today.    Since my Fleet Cyber Command predecessor, Admiral Mike Rogers, last testified before this subcommittee in July of 2012, the Department of Defense, U.S. Cyber Command, and the service components have significantly matured our operations and cyber operational capabilities. I appreciate the opportunity to outline Navy-specific progress over the past 2 years, where we are headed to address an ever-increasing threat, and how budgetary uncertainty is likely to impact our progress and operations.    Fleet Cyber Command directs the operations to secure, operate, and defend Navy networks within the Department of Defense Information Network [DODIN]. We operate Navy networks as a warfighting platform which must be aggressively defended from intrusion, exploitation, and attack. The Navy network consists of more than 500,000 end user devices, approximately 75,000 network devices, and nearly 45,000 applications and systems across 3 security enclaves.    We have transformed the way we operate and defend over the past 2 years based on operational lessons learned. Specifically, beginning in summer of 2013, we, with Admiral Rogers at the helm at the time, fought through an adversary intrusion into Navy's unclassified network.    Under the named operation known as Operation Rolling Tide, Fleet Cyber Command drove out the intruder through exceptional collaboration with affected Navy commanders, U.S. Cyber Command, the National Security Agency, the Defense Information Security Agency, and our fellow cyber service components. Although any intrusion upon our network is troubling, this operation served as a learning opportunity that has both matured the way we operate and defend our networks and simultaneously highlighted gaps both in cybersecurity posture and in our defensive operational capabilities.    As a result of this operation and other cybersecurity initiatives inside of the Navy, we have already made, proposed, or planned for a nearly $1 billion investment between the years of fiscal year 2014 and fiscal year 2020 that will greatly reduce the risk of successful cyberspace operations against Navy networks. Of course, these investments are built on the premise that our future budgets will not be drastically reduced by sequestration.    Specifically, if budget uncertainty continues, we will have an increasingly difficult time addressing this very real and present danger to our national security and maritime warfighting capabilities. Operationally, and on a 24-by-7 and 365 days a year, Fleet Cyber Command is focused on configuring and operating layered defense in-depth capabilities to prevent malicious actors from gaining access to our Navy networks in collaboration and cooperation with our sister services, U.S. Cyber Command, Joint Forces Headquarters-DODIN, DISA, and the National Security Agency. Additionally we are driving towards expanded cyber situational awareness to inform our network maneuvers and reduce risk in this space.    As you know, Navy and other service components are building the maneuver elements in the Cyber Mission Force for U.S. Cyber Command by manning, training, and certifying teams to the U.S. Cyber Command standards. The Navy is currently on track to have personnel assigned for all 40 teams, all 40 of the Navy-sourced Cyber Mission Force teams in 2016, with full operational capability in the following year.    Additionally, between now and 2018, an additional 298 cyber Reserve billets will also augment the cyber force manning plan. In delivering on both U.S. Cyber Command's and the U.S. Navy's requirements in cyberspace, I am fortunate to have these component commanders as partners in addition to the many organizations who are not represented here but are every bit a member of team cyber.    Thank you again, and I look forward to your questions.    [The prepared statement of Admiral Tighe can be found in the Appendix on page 66.]    Mr. Wilson of South Carolina. Thank you, Admiral, very much.    And General O'Donohue.    General O'Donohue. Thank you, sir.    Chairman Wilson, Ranking Member Langevin, and distinguished members of this subcommittee, it is an honor to appear before you today. On behalf of your Marines, our civilian Marines, and their families, I thank you for your continued support as we pursue a multi-year joint cyberspace strategy.    Marines have a legacy of operating in any clime or place. Whether at sea with the Navy, or working shoulder to shoulder with our joint, interagency, and coalition partners, we are standing ready to respond to crises around the globe, bringing to employ combined arms across the air, land, and sea domains. We are now entering an era of transition where the cyber domain will be fully integrated in the same way.    Our Commandant has laid out a clear vision to increase the capacity and capability of the Marine Air-Ground Task Force to fully integrate cyberspace operations. MARFORCYBER [U.S. Marine Corps Forces Cyberspace] is leading the effort to ensure that we institutionalize this vision across the Marine Corps, to include by participating in over 30 exercises last year. As a service component to U.S. Cyber Command, MARFORCYBER in conjunction with its service partners, conducts full-spectrum cyberspace operations to enable freedom of action across the cyberspace domain and deny the same to our adversaries. Additionally, MARFORCYBER provides direct support to United States Special Operations Command's missions worldwide.    To support these operations, we are building the Cyber Mission Force, and these forces are achieving operational outcomes today. These achievements are helping us to shape the vision for the future of cyberspace operations for the Marine Corps, as part of the joint, interagency, and combined force.    Last June, U.S. Cyber Command certified our first Cyber Mission Team and our first national Cyber Protection Team. During this time our second Cyber Mission Team reached its initial operation capability. MARFORCYBER is on track to have over 75 percent of its teams resourced by the end of 2015. To expedite this force build, the Marine Corps has dedicated 16 percent of its retention bonuses for our cyberspace professionals. And based on lessons learned, we have streamlined our personnel and training pipeline as we deal with the surge requirements of a startup force.    In addition, we have expanded the opportunities and developed procedures for our teams to work with increasing effectiveness across the joint and interagency force. This has been a combat multiplier. At the bottom line, we are fielding the cyber forces required by our strategy and provided by the President's budget, ready, on time, and with increasing operability in ways that we had not imagined. As we build the force, MARFORCYBER is achieving operational outcomes in stride by supporting joint, interagency, and coalition partners at home and overseas. Every day we are planning cyberspace operations, defending the network, and standing ready when directed by U.S. Cyber Command to conduct offensive cyberspace operations. Increasingly, combatant commanders and special operation forces now see cyberspace operations not as a special staff function, but essential to everything that warfighters do.    Currently, we are pursuing a considered joint and service strategy for the multi-year development of a unified network that will facilitate command and control, provide real-time situational awareness, and assist with decision support to commanders at all levels. For the Marine Corps, this network will be optimized for operational support to forces as they are deployed across the globe and as they train for crisis response. In an unstable and unpredictable security environment, the Marines provide a ready, forward, expeditionary extension of cyber capability for the joint, interagency, and combined force.    Thank you for the opportunity to appear before you today, and thank you for your continued support to our national treasure, our Marine civilians and their families, I look forward to answering your questions.    [The prepared statement of General O'Donohue can be found in the Appendix on page 79.]    Mr. Wilson of South Carolina. General, thank you very much.    And General Wilson.    General Wilson. Chairman Wilson, Ranking Member Langevin, and distinguished members of the subcommittee, thank you for the opportunity to appear before you today with my fellow commanders.    It is an honor to represent the outstanding men and women of Air Forces Cyber and 24th Air Force. I am extremely proud of the work our airmen, officers, enlisted, and civilians do each and every day to field and employ cyber capabilities in support of combatant and Air Force commanders. In the interest of time, let me share just a few examples to highlight how our airmen are making positive lasting impacts to our Nation.    Since we last briefed the subcommittee, the Air Force completed migration of our unclassified networks from many disparate systems into a single architecture. We transitioned over 644,000 users across more than 250 geographic locations to a single network and reduced over 100 Internet access points into a more streamlined 16 gateways. The end result has been a more reliable, affordable, and most importantly, defensible network.    The Air Force has also championed the fielding of next-generation technology by partnering with the Army and Defense Information Systems Agency to support the transition to a Joint Information Environment [JIE]. Together we are implementing Joint Regional Security Stacks and making enhancements to our networks in order to achieve a single DOD security architecture. The combined team achieved a critical milestone last September when they fielded their first security stack, and we have continued to push hard on these efforts, which will benefit the entire Department by reducing our network attack surface and increasing network capacity and capabilities.    Like the other services, we have made significant progress towards fielding and employing our initial Cyber Mission Forces. Today, Air Forces Cyber has 15 teams that achieved initial operating capability, and 2 teams have reached full operating capability. In addition to providing unprecedented support to joint and coalition combat forces in Afghanistan and Syria, these cyber forces are wholly engaged in support of combatant and Air Force commanders around the world, as well as in defense of the Nation.    I am proud to report our Air Reserve Component is a full partner in the Cyber Mission Force build, in addition to our other day-to-day cyber operations. We are leveraging traditional reservists, Air Reserve technicians, and Air National Guardsmen across the command to meet our warfighting commitments. Whether it is commanding and controlling cyber forces from one of our operation centers, deploying as part of our combat communications team, installing cyber infrastructure around the world, or any other task, each of our total force members meet the same demanding standards and serve alongside our Active Duty counterparts. In my humble opinion, it is a tremendous example of total force integration in action.    The Air Force has also instituted several key initiatives to better recruit, develop, and retain our cyber forces. Most recently, we approved a Stripes for Certifications Program which provides the opportunity for candidates to enlist at a higher grade when entering the Air Force with desired cyber-related certifications. We have also continued our selective reenlistment bonus program to provide additional incentives for enlisted members to continue to serve in the demanding cyber and intelligence specialties.    For our officers, we have complemented the cyber warfare operations career track which we established several years ago with a new cyber intermediate leadership program. The objective is to identify qualified cyber and intelligence officers and provide them the right professional growth opportunities. We held our first board just recently and competitively selected 83 majors and senior captains from across the cyber fields to serve in key command and operational positions, many as integral members of the Cyber Mission Force.    And finally, we continue to support a host of initiatives aimed at improving the outreach to our Nation's youngest generation. I would like to highlight just one that will be culminating here in DC on March 12. It is called CyberPatriot and sponsored by the Air Force Association in partnership with local high schools and middle schools around the country, several industry partners, as well as cyber professionals from the Air Force.    CyberPatriot's goal is to inspire students to pursue careers in cybersecurity or other STEM [science, technology, engineering, and mathematics] career fields. At the beginning of the school year in September, over 2,100 teams, 2,100 teams, involving nearly 10,000 students in the U.S., Canada, United Kingdom, and our DOD schools overseas, participated in cyber training and competitions. We have seen a 40 percent increase in participation this year. As I mentioned, CyberPatriot will culminate here locally at the National Harbor with 28 teams competing in the national finals. Students will earn national recognition and scholarships. Without a doubt, the program is an exemplar of how public-private partnership can make a real difference. Personally, it has been rewarding to see our airmen giving back to our younger generation.    These are just a handful of examples to share how our airmen are pushing hard to increase cyber capability and capacity across the command. Believe me, Air Forces Cyber and 24th Air Force are all in and fully committed to the mission.    Our cyber force is more capable than ever before and continues to get better every day. None of this would be possible without your continued support. As you have heard from my counterparts, the need for the support will only increase in importance as we move forward. It is clear resource stability in the years ahead will best enable our continued success in developing airmen and maturing our capabilities to operate in, through, and from the cyberspace domain. Simply put, our cyber warriors truly are professionals in every sense of the word, and they deserve our full support.    Along with my fellow commanders, it is an honor to be here today. Thank you again for the opportunity. I look forward to your questions.    [The prepared statement of General Wilson can be found in the Appendix on page 87.]    Mr. Wilson of South Carolina. Thank you very much, General, and that was fascinating to find out about the involvement of students. What a great opportunity. And I know it has to be reassuring to the American people, your service, your personnel, the families that are supportive of your personnel, and I just thank each of you for protecting American families and advancing our national security.    We will now go into our round of 5 minutes of each member. Kevin Gates, who is our professional staff person, will keep the time. Members of Congress need timekeepers more than other people, beginning with me.    And so as we begin, Admiral Rogers, given the increasing and evolving cyber threats, what are critical steps that Congress can do to enable CYBERCOM accomplish your mission?</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you Mr. Chairman.    You know, from the perspective of a ground-pounder, you know, I was just a frogman, it seems to me when you say your ability to defend the Nation, and I am concerned about the chain of command. You know, we have had earlier discussions about, you know, what is the difference whether a missile attack is incoming or whether it hits a military facility or a piece of our major infrastructure or our banking system, it is an attack.    And I am concerned that the chain of command doesn't allow you to quickly react to an attack because somehow we have to go through and determine whether it is a bank or whether it is a--you know, what article it is under. And it seems to me that we need to take a fast look at this and so we are not responding to a crisis, but preparing for what we will, I think most in this room believe, is an eventual attack.    So I guess my question is are you comfortable with the current--your current ability to defend this Nation and the shipyards and infrastructure and everything there is, the cyber? And if you are not, what are the benefits of looking at streamlining our chain of command and so we can have accountability, we can have, you know, cost and efficiency? What do you see as the path forward?</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t xml:space="preserve">    Mr. Zinke. Thank you, sir.    Mr. Chairman, I yield the remaining part of my time.    I look forward to working with you on this and support you in any way I can.    Mr. Wilson of South Carolina. Thank you, Congressman Zinke.    We now proceed to Congressman Joaquin Castro of Texas.</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank each of you for offering your testimony today.    Welcome to Washington. I know you all are here frequently.    A special welcome to Major General Wilson, who is in from San Antonio, Texas, Lackland Air Force Base. We are very proud of the work you all are doing there.    Let me ask you all a question about training people in cybersecurity in our country because this issue and the need for that skill is only going to become more pronounced in the coming years.    This Congress is in the process of taking up our big education reauthorization bill for example, ESEA [Elementary and Secondary Education Act]. What programs in our school should we be expanding or growing, not only in our high schools, but also in our colleges, to prepare more students to take on roles in cybersecurity and so that you all have a pipeline of qualified people who can take on these jobs, a job that is becoming more in demand not just in the military or in government, but also in the private sector? And I will open it up.</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    And I would like to build on this theme of education. Admiral Rogers, the University of Colorado at Colorado Springs in my district and the Army Reserve just announced a partnership to educate cyber warriors. Is this a good model, and should we support it?</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman, and thank you to all of our witnesses here today for your service and the time you took to prepare for today's hearing.    My question is for Lieutenant General Cardon. Last month at a conference you discussed the military's need for flexibility, it is something we hear quite often, and that the traditional top-down way of operating is a challenge in its organizational approach, especially as it relates to cybersecurity. Can you explain this further? And then I am also interested in how this is applicable to the current mission in Afghanistan.    General Cardon. So I come at it from an operational approach, and so the challenge in operations is what level of a centralization do you need, and what level of decentralization do you need. And so some operations require a high degree of centralization, and some operations work best decentralized.    The art is figuring out which one is most applicable. And in cyber, I think we have a centralized framework with a decentralized execution. But I will go further building on what Admiral Rogers talked about. It is when you start to bring coalition and private, because this affects--it affects all of us, so anything that happens to any one of us, all of us are talking to each other here, and with CYBERCOM it is going wider because everyone could have this same problem.    So you create more like a fusion cell. I describe it as being mission focused, not organizationally focused. So everyone looks at the mission, everyone is working on the problem. So when you take an example something like Heartbleed, which was a severe vulnerability that affected everyone, not just in the military but in private industry, that is a fusion sort of approach. Looks different inside the military, but everyone was working on this problem across the country.    In Afghanistan, operations are very decentralized. There is a limited amount of capability. It is prioritized by General Campbell, and then we use it accordingly. And so the decentralized nature of the operations there, often driven by the terrain, has I think been pretty effective.</t>
   </si>
   <si>
@@ -209,9 +188,6 @@
   </si>
   <si>
     <t>400081</t>
-  </si>
-  <si>
-    <t>Jim Cooper</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman.    Within the last 2 weeks, I think it was publicized that Lenovo computer company shipped laptops already equipped with malware called Spear Phishing or something.    Isn't that kind of amazing, that a brand-new laptop would already be essentially booby-trapped that way?</t>
@@ -697,11 +673,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -721,13 +695,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -747,13 +719,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -773,13 +743,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -799,13 +767,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -825,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -853,11 +817,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -877,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -905,11 +865,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -931,11 +889,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -955,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -981,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1007,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1033,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1059,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1085,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1111,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1137,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1163,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1189,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1215,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1241,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1267,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1293,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1319,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1345,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1371,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1397,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1423,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1449,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1477,11 +1393,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1501,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1529,11 +1441,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1553,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1581,11 +1489,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1607,11 +1513,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1631,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1659,11 +1561,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1683,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1709,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1735,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1761,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1787,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1813,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1839,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1865,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1891,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1917,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1943,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1969,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1995,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2021,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2047,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2073,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2099,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2125,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2151,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2177,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2203,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2229,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2255,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2281,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2307,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2333,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2359,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2385,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2411,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2437,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2463,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2489,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Well, thank you, Mr. Chairman.    And I want to thank our witnesses for being here today, and I look forward to hearing your testimony, and, as always, I thank you for the work you are doing on behalf of our country. Thank you all for your service.    The 2014 Quadrennial Defense Review stated that, and I quote, ``The importance of cyberspace to the American way of life and to the Nation's security makes cyberspace an attractive target for those seeking to challenge our security and economic order,'' end quote. I could not agree more. Last year the Director of National Intelligence placed cyber threats number one on the list of strategic threats to the United States.    Most recently, the National Security Strategy cites the danger of destruction and even destructive cyber attack is growing. The cyber domain is complex. We all understand that. Threats in this space continuously evolve based on emerging technologies and techniques to counter our efforts. Threats are carried out by a diverse set of actors. Securing, defending, and operating freely in this space presents a nontraditional challenge requiring an immediate but thoughtful response.    Since the creation of U.S. Cyber Command, the Department has made substantial strides in understanding and enabling freedom of action in the cyber domain, as well as understanding and protecting Department of Defense networks. Significant investments have been made. In fact, cyberspace is the only area of growth in the Department of Defense's budget in the last few years. I commend the Department's efforts, and I am proud of what has been achieved so far, yet there is still much to be done. Confronting this challenge will continue to require dialogue between the Department and Congress on the policies, capabilities, and other resources needed to appropriately and successfully operate in the cyber domain. That is why this hearing is so important.    Together we can build and maintain a ready cyber force for the Nation. I look forward to receiving an update from the witnesses on the buildout of our cyber capacity and the fiscal year 2016 budget request. I hope the services will provide us an understanding of total force requirements for cyber operations, both service-specific and for the U.S. Cyber Command to enable the subcommittee to better understand all resources needed and provide for a ready force.    Specifically, I am eager to hear about how the services are recruiting and retaining qualified military and civilian personnel, managing cyber as a career field, and any challenges associated with those fields. I look forward to hearing how the services are incorporating the Reserve Components into the cyber mission forces. Additionally, I would like to understand how science and technology investments are being leveraged now and in the future to deliver the latest and best capabilities.    I would also like the witnesses' perspective on whether the current acquisition process delivers tools in time to meet and stay ahead of the threat, which as we know as technology changes so quickly, that is a significant challenge on our hands. So there is much to discuss on this issue, and in order to allow for dialogue, I am going to end my remarks here.    And again I want to thank our witnesses for appearing before the subcommittee and to you, Mr. Chairman, for holding this hearing, and I yield back.    Mr. Wilson of South Carolina. Thank you, Mr. Langevin.    Before we begin, I would like to remind our witnesses that your written statements will be submitted for the record, so we ask that you summarize your comments to 5 minutes or less.    Admiral Rogers, we begin with you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Rogers. Thank you, sir.    Chairman Wilson, Ranking Member Langevin, and distinguished members of the committee, I am honored to appear before you today to discuss our military cybersecurity posture, and I would like to thank you for convening this forum.    I am equally pleased to be sitting alongside my colleagues from each of the four service components of the United States Cyber Command. It gives me great pride to appear before you today to highlight and commend the accomplishments of the uniformed and civilian personnel of U.S. Cyber Command and its components, and I am both grateful for and humbled by the opportunity that I have been given to lead this cyber team.    The current threat environment is, as you have just described in your opening remarks, uncertain. That said, we are certain of one particular thing, and that is the pervasive nature of these cyber threats and the sophistication of the adversaries we face. Our military networks are probed for vulnerabilities literally thousands of times a day. The very assets within our military that provide us formidable advantages over adversaries are precisely the reason that our enemies seek to map, understand, exploit, and disrupt our global network architecture.    The cyber intruders of today not only want to disrupt our actions, but they seek to establish a permanent presence on our networks. Quite simply, threats and vulnerabilities are changing and expanding at an accelerating and significant pace. Compounding this threat is the fact that we are dependent on cyberspace. Operating freely and securely in cyberspace is critical to not only our military and our government, but also to the private sector, which is responsible for maintaining much of our Nation's critical infrastructure to including that of key parts of the Department of Defense.    The bottom line is weakness in cyberspace has the potential to hold back our success in every field where our [Nation] is engaged. And I would like to focus in our comments today on the progress we have made so far, the achievements that we are doing in the operational arena, and what I think is the way ahead, and I look forward to that discussion.    With that, I will conclude my opening remarks.    [The prepared statement of Admiral Rogers can be found in the Appendix on page 35.]    Mr. Wilson of South Carolina. Thank you very much.    And General Cardon.    General Cardon. Chairman Wilson, Ranking Member Langevin, members of the committee, it is an honor to be here on behalf of the U.S. Army Cyber Command and Second Army alongside Admiral Rogers and my fellow commanders.    We appreciate the work of this committee to protect the American people from emerging threats and ensure our military has the capabilities we need to defend the Nation. Over the last few years we have had tremendous momentum, both within the institution and operationalizing cyberspace, but a lot of work remains. For the institution, we have consolidated cyberspace under one commander. We have created the Cyber Center of Excellence in Fort Gordon, Georgia, and the Army Cyber Institute at the United States Military Academy.    The Army is currently establishing the necessary frameworks to build capabilities for the Army, and by extension, the Joint Force. Operationally, we are making progress with mission-focused approaches supporting Army and combatant commanders. We made progress this year developing the Army's portion of the Cyber Mission Force with 25 of 41 teams on mission now, and we expect to have all 41 on mission by the end of fiscal year 2016 as planned.    In the face of determined adversaries, though, we are employing these teams as they reach initial operating capability and will continue to bring forces and capabilities online through 2017. The threat, vulnerabilities, and missions set, demand this sense of urgency. This also includes bringing online 21 U.S. Army Reserve and Army National Guard Protection Teams that will be trained at the same standards as the Active Component cyber force.    We are going to need more personnel beyond the Cyber Mission Force to build out the support required to fully employ the Cyber Mission Force and to build capabilities for Army formations. To better manage our people, the Army created a cyber branch, and we are exploring the creation of a cyber career field for civilian personnel.    For training, we have a centrally funded joint model for individually training, but we are working to also build collective training capabilities and their associated facilities within a joint construct. For equipping the forces, we are developing and refining the necessary framework to give us the agility that we will need in programming, resourcing, and acquisition for infrastructure platforms and tools. And for a more defensible architecture and network, we are partnered with the Army's Chief Information Officer and Defense Information Systems Agency [DISA] in the Air Force for an extensive network modernization efforts.    These are essential for the security, operation, and defense of our Department of Defense networks. We have made tremendous progress, and with your support we have the necessary program resources to continue our momentum, but we cannot delay for the struggle is on us now.    Thank you, and I will be happy to answer your questions.    [The prepared statement of General Cardon can be found in the Appendix on page 53.]    Mr. Wilson of South Carolina. Thank you very much, General.    Admiral Tighe.</t>
   </si>
   <si>
+    <t>Tighe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Tighe. Chairman Wilson, Ranking Member Langevin, and distinguished members of the subcommittee, thank you for your support to our military and the opportunity to appear before you today.    Since my Fleet Cyber Command predecessor, Admiral Mike Rogers, last testified before this subcommittee in July of 2012, the Department of Defense, U.S. Cyber Command, and the service components have significantly matured our operations and cyber operational capabilities. I appreciate the opportunity to outline Navy-specific progress over the past 2 years, where we are headed to address an ever-increasing threat, and how budgetary uncertainty is likely to impact our progress and operations.    Fleet Cyber Command directs the operations to secure, operate, and defend Navy networks within the Department of Defense Information Network [DODIN]. We operate Navy networks as a warfighting platform which must be aggressively defended from intrusion, exploitation, and attack. The Navy network consists of more than 500,000 end user devices, approximately 75,000 network devices, and nearly 45,000 applications and systems across 3 security enclaves.    We have transformed the way we operate and defend over the past 2 years based on operational lessons learned. Specifically, beginning in summer of 2013, we, with Admiral Rogers at the helm at the time, fought through an adversary intrusion into Navy's unclassified network.    Under the named operation known as Operation Rolling Tide, Fleet Cyber Command drove out the intruder through exceptional collaboration with affected Navy commanders, U.S. Cyber Command, the National Security Agency, the Defense Information Security Agency, and our fellow cyber service components. Although any intrusion upon our network is troubling, this operation served as a learning opportunity that has both matured the way we operate and defend our networks and simultaneously highlighted gaps both in cybersecurity posture and in our defensive operational capabilities.    As a result of this operation and other cybersecurity initiatives inside of the Navy, we have already made, proposed, or planned for a nearly $1 billion investment between the years of fiscal year 2014 and fiscal year 2020 that will greatly reduce the risk of successful cyberspace operations against Navy networks. Of course, these investments are built on the premise that our future budgets will not be drastically reduced by sequestration.    Specifically, if budget uncertainty continues, we will have an increasingly difficult time addressing this very real and present danger to our national security and maritime warfighting capabilities. Operationally, and on a 24-by-7 and 365 days a year, Fleet Cyber Command is focused on configuring and operating layered defense in-depth capabilities to prevent malicious actors from gaining access to our Navy networks in collaboration and cooperation with our sister services, U.S. Cyber Command, Joint Forces Headquarters-DODIN, DISA, and the National Security Agency. Additionally we are driving towards expanded cyber situational awareness to inform our network maneuvers and reduce risk in this space.    As you know, Navy and other service components are building the maneuver elements in the Cyber Mission Force for U.S. Cyber Command by manning, training, and certifying teams to the U.S. Cyber Command standards. The Navy is currently on track to have personnel assigned for all 40 teams, all 40 of the Navy-sourced Cyber Mission Force teams in 2016, with full operational capability in the following year.    Additionally, between now and 2018, an additional 298 cyber Reserve billets will also augment the cyber force manning plan. In delivering on both U.S. Cyber Command's and the U.S. Navy's requirements in cyberspace, I am fortunate to have these component commanders as partners in addition to the many organizations who are not represented here but are every bit a member of team cyber.    Thank you again, and I look forward to your questions.    [The prepared statement of Admiral Tighe can be found in the Appendix on page 66.]    Mr. Wilson of South Carolina. Thank you, Admiral, very much.    And General O'Donohue.    General O'Donohue. Thank you, sir.    Chairman Wilson, Ranking Member Langevin, and distinguished members of this subcommittee, it is an honor to appear before you today. On behalf of your Marines, our civilian Marines, and their families, I thank you for your continued support as we pursue a multi-year joint cyberspace strategy.    Marines have a legacy of operating in any clime or place. Whether at sea with the Navy, or working shoulder to shoulder with our joint, interagency, and coalition partners, we are standing ready to respond to crises around the globe, bringing to employ combined arms across the air, land, and sea domains. We are now entering an era of transition where the cyber domain will be fully integrated in the same way.    Our Commandant has laid out a clear vision to increase the capacity and capability of the Marine Air-Ground Task Force to fully integrate cyberspace operations. MARFORCYBER [U.S. Marine Corps Forces Cyberspace] is leading the effort to ensure that we institutionalize this vision across the Marine Corps, to include by participating in over 30 exercises last year. As a service component to U.S. Cyber Command, MARFORCYBER in conjunction with its service partners, conducts full-spectrum cyberspace operations to enable freedom of action across the cyberspace domain and deny the same to our adversaries. Additionally, MARFORCYBER provides direct support to United States Special Operations Command's missions worldwide.    To support these operations, we are building the Cyber Mission Force, and these forces are achieving operational outcomes today. These achievements are helping us to shape the vision for the future of cyberspace operations for the Marine Corps, as part of the joint, interagency, and combined force.    Last June, U.S. Cyber Command certified our first Cyber Mission Team and our first national Cyber Protection Team. During this time our second Cyber Mission Team reached its initial operation capability. MARFORCYBER is on track to have over 75 percent of its teams resourced by the end of 2015. To expedite this force build, the Marine Corps has dedicated 16 percent of its retention bonuses for our cyberspace professionals. And based on lessons learned, we have streamlined our personnel and training pipeline as we deal with the surge requirements of a startup force.    In addition, we have expanded the opportunities and developed procedures for our teams to work with increasing effectiveness across the joint and interagency force. This has been a combat multiplier. At the bottom line, we are fielding the cyber forces required by our strategy and provided by the President's budget, ready, on time, and with increasing operability in ways that we had not imagined. As we build the force, MARFORCYBER is achieving operational outcomes in stride by supporting joint, interagency, and coalition partners at home and overseas. Every day we are planning cyberspace operations, defending the network, and standing ready when directed by U.S. Cyber Command to conduct offensive cyberspace operations. Increasingly, combatant commanders and special operation forces now see cyberspace operations not as a special staff function, but essential to everything that warfighters do.    Currently, we are pursuing a considered joint and service strategy for the multi-year development of a unified network that will facilitate command and control, provide real-time situational awareness, and assist with decision support to commanders at all levels. For the Marine Corps, this network will be optimized for operational support to forces as they are deployed across the globe and as they train for crisis response. In an unstable and unpredictable security environment, the Marines provide a ready, forward, expeditionary extension of cyber capability for the joint, interagency, and combined force.    Thank you for the opportunity to appear before you today, and thank you for your continued support to our national treasure, our Marine civilians and their families, I look forward to answering your questions.    [The prepared statement of General O'Donohue can be found in the Appendix on page 79.]    Mr. Wilson of South Carolina. General, thank you very much.    And General Wilson.    General Wilson. Chairman Wilson, Ranking Member Langevin, and distinguished members of the subcommittee, thank you for the opportunity to appear before you today with my fellow commanders.    It is an honor to represent the outstanding men and women of Air Forces Cyber and 24th Air Force. I am extremely proud of the work our airmen, officers, enlisted, and civilians do each and every day to field and employ cyber capabilities in support of combatant and Air Force commanders. In the interest of time, let me share just a few examples to highlight how our airmen are making positive lasting impacts to our Nation.    Since we last briefed the subcommittee, the Air Force completed migration of our unclassified networks from many disparate systems into a single architecture. We transitioned over 644,000 users across more than 250 geographic locations to a single network and reduced over 100 Internet access points into a more streamlined 16 gateways. The end result has been a more reliable, affordable, and most importantly, defensible network.    The Air Force has also championed the fielding of next-generation technology by partnering with the Army and Defense Information Systems Agency to support the transition to a Joint Information Environment [JIE]. Together we are implementing Joint Regional Security Stacks and making enhancements to our networks in order to achieve a single DOD security architecture. The combined team achieved a critical milestone last September when they fielded their first security stack, and we have continued to push hard on these efforts, which will benefit the entire Department by reducing our network attack surface and increasing network capacity and capabilities.    Like the other services, we have made significant progress towards fielding and employing our initial Cyber Mission Forces. Today, Air Forces Cyber has 15 teams that achieved initial operating capability, and 2 teams have reached full operating capability. In addition to providing unprecedented support to joint and coalition combat forces in Afghanistan and Syria, these cyber forces are wholly engaged in support of combatant and Air Force commanders around the world, as well as in defense of the Nation.    I am proud to report our Air Reserve Component is a full partner in the Cyber Mission Force build, in addition to our other day-to-day cyber operations. We are leveraging traditional reservists, Air Reserve technicians, and Air National Guardsmen across the command to meet our warfighting commitments. Whether it is commanding and controlling cyber forces from one of our operation centers, deploying as part of our combat communications team, installing cyber infrastructure around the world, or any other task, each of our total force members meet the same demanding standards and serve alongside our Active Duty counterparts. In my humble opinion, it is a tremendous example of total force integration in action.    The Air Force has also instituted several key initiatives to better recruit, develop, and retain our cyber forces. Most recently, we approved a Stripes for Certifications Program which provides the opportunity for candidates to enlist at a higher grade when entering the Air Force with desired cyber-related certifications. We have also continued our selective reenlistment bonus program to provide additional incentives for enlisted members to continue to serve in the demanding cyber and intelligence specialties.    For our officers, we have complemented the cyber warfare operations career track which we established several years ago with a new cyber intermediate leadership program. The objective is to identify qualified cyber and intelligence officers and provide them the right professional growth opportunities. We held our first board just recently and competitively selected 83 majors and senior captains from across the cyber fields to serve in key command and operational positions, many as integral members of the Cyber Mission Force.    And finally, we continue to support a host of initiatives aimed at improving the outreach to our Nation's youngest generation. I would like to highlight just one that will be culminating here in DC on March 12. It is called CyberPatriot and sponsored by the Air Force Association in partnership with local high schools and middle schools around the country, several industry partners, as well as cyber professionals from the Air Force.    CyberPatriot's goal is to inspire students to pursue careers in cybersecurity or other STEM [science, technology, engineering, and mathematics] career fields. At the beginning of the school year in September, over 2,100 teams, 2,100 teams, involving nearly 10,000 students in the U.S., Canada, United Kingdom, and our DOD schools overseas, participated in cyber training and competitions. We have seen a 40 percent increase in participation this year. As I mentioned, CyberPatriot will culminate here locally at the National Harbor with 28 teams competing in the national finals. Students will earn national recognition and scholarships. Without a doubt, the program is an exemplar of how public-private partnership can make a real difference. Personally, it has been rewarding to see our airmen giving back to our younger generation.    These are just a handful of examples to share how our airmen are pushing hard to increase cyber capability and capacity across the command. Believe me, Air Forces Cyber and 24th Air Force are all in and fully committed to the mission.    Our cyber force is more capable than ever before and continues to get better every day. None of this would be possible without your continued support. As you have heard from my counterparts, the need for the support will only increase in importance as we move forward. It is clear resource stability in the years ahead will best enable our continued success in developing airmen and maturing our capabilities to operate in, through, and from the cyberspace domain. Simply put, our cyber warriors truly are professionals in every sense of the word, and they deserve our full support.    Along with my fellow commanders, it is an honor to be here today. Thank you again for the opportunity. I look forward to your questions.    [The prepared statement of General Wilson can be found in the Appendix on page 87.]    Mr. Wilson of South Carolina. Thank you very much, General, and that was fascinating to find out about the involvement of students. What a great opportunity. And I know it has to be reassuring to the American people, your service, your personnel, the families that are supportive of your personnel, and I just thank each of you for protecting American families and advancing our national security.    We will now go into our round of 5 minutes of each member. Kevin Gates, who is our professional staff person, will keep the time. Members of Congress need timekeepers more than other people, beginning with me.    And so as we begin, Admiral Rogers, given the increasing and evolving cyber threats, what are critical steps that Congress can do to enable CYBERCOM accomplish your mission?</t>
   </si>
   <si>
@@ -88,6 +103,12 @@
     <t>412640</t>
   </si>
   <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you Mr. Chairman.    You know, from the perspective of a ground-pounder, you know, I was just a frogman, it seems to me when you say your ability to defend the Nation, and I am concerned about the chain of command. You know, we have had earlier discussions about, you know, what is the difference whether a missile attack is incoming or whether it hits a military facility or a piece of our major infrastructure or our banking system, it is an attack.    And I am concerned that the chain of command doesn't allow you to quickly react to an attack because somehow we have to go through and determine whether it is a bank or whether it is a--you know, what article it is under. And it seems to me that we need to take a fast look at this and so we are not responding to a crisis, but preparing for what we will, I think most in this room believe, is an eventual attack.    So I guess my question is are you comfortable with the current--your current ability to defend this Nation and the shipyards and infrastructure and everything there is, the cyber? And if you are not, what are the benefits of looking at streamlining our chain of command and so we can have accountability, we can have, you know, cost and efficiency? What do you see as the path forward?</t>
   </si>
   <si>
@@ -97,6 +118,9 @@
     <t xml:space="preserve">    Mr. Zinke. Thank you, sir.    Mr. Chairman, I yield the remaining part of my time.    I look forward to working with you on this and support you in any way I can.    Mr. Wilson of South Carolina. Thank you, Congressman Zinke.    We now proceed to Congressman Joaquin Castro of Texas.</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank each of you for offering your testimony today.    Welcome to Washington. I know you all are here frequently.    A special welcome to Major General Wilson, who is in from San Antonio, Texas, Lackland Air Force Base. We are very proud of the work you all are doing there.    Let me ask you all a question about training people in cybersecurity in our country because this issue and the need for that skill is only going to become more pronounced in the coming years.    This Congress is in the process of taking up our big education reauthorization bill for example, ESEA [Elementary and Secondary Education Act]. What programs in our school should we be expanding or growing, not only in our high schools, but also in our colleges, to prepare more students to take on roles in cybersecurity and so that you all have a pipeline of qualified people who can take on these jobs, a job that is becoming more in demand not just in the military or in government, but also in the private sector? And I will open it up.</t>
   </si>
   <si>
@@ -115,6 +139,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    And I would like to build on this theme of education. Admiral Rogers, the University of Colorado at Colorado Springs in my district and the Army Reserve just announced a partnership to educate cyber warriors. Is this a good model, and should we support it?</t>
   </si>
   <si>
@@ -136,6 +166,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman, and thank you to all of our witnesses here today for your service and the time you took to prepare for today's hearing.    My question is for Lieutenant General Cardon. Last month at a conference you discussed the military's need for flexibility, it is something we hear quite often, and that the traditional top-down way of operating is a challenge in its organizational approach, especially as it relates to cybersecurity. Can you explain this further? And then I am also interested in how this is applicable to the current mission in Afghanistan.    General Cardon. So I come at it from an operational approach, and so the challenge in operations is what level of a centralization do you need, and what level of decentralization do you need. And so some operations require a high degree of centralization, and some operations work best decentralized.    The art is figuring out which one is most applicable. And in cyber, I think we have a centralized framework with a decentralized execution. But I will go further building on what Admiral Rogers talked about. It is when you start to bring coalition and private, because this affects--it affects all of us, so anything that happens to any one of us, all of us are talking to each other here, and with CYBERCOM it is going wider because everyone could have this same problem.    So you create more like a fusion cell. I describe it as being mission focused, not organizationally focused. So everyone looks at the mission, everyone is working on the problem. So when you take an example something like Heartbleed, which was a severe vulnerability that affected everyone, not just in the military but in private industry, that is a fusion sort of approach. Looks different inside the military, but everyone was working on this problem across the country.    In Afghanistan, operations are very decentralized. There is a limited amount of capability. It is prioritized by General Campbell, and then we use it accordingly. And so the decentralized nature of the operations there, often driven by the terrain, has I think been pretty effective.</t>
   </si>
   <si>
@@ -188,6 +224,12 @@
   </si>
   <si>
     <t>400081</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman.    Within the last 2 weeks, I think it was publicized that Lenovo computer company shipped laptops already equipped with malware called Spear Phishing or something.    Isn't that kind of amazing, that a brand-new laptop would already be essentially booby-trapped that way?</t>
@@ -623,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,1685 +695,1970 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94221.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Langevin</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>412640</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Zinke</t>
@@ -665,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,1967 +707,2112 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+      <c r="H14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
       </c>
       <c r="I14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
